--- a/LSTMSubSampled.xlsx
+++ b/LSTMSubSampled.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="83">
   <si>
     <t>Using 10 past samples</t>
   </si>
@@ -245,6 +245,21 @@
   </si>
   <si>
     <t>2/1 epochs, model is predicting flat line -&gt; severly underfit. Multiple tries</t>
+  </si>
+  <si>
+    <t>2.981210708618164</t>
+  </si>
+  <si>
+    <t>1m 19s / 1m 6s</t>
+  </si>
+  <si>
+    <t>12.592828902855075 %</t>
+  </si>
+  <si>
+    <t>5.987421332258472 %</t>
+  </si>
+  <si>
+    <t>17.05721783694347 %</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1064,39 @@
       <c r="L21" s="4"/>
     </row>
     <row r="22">
-      <c r="F22" s="4"/>
+      <c r="A22" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C22" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
